--- a/Aircraft-Design-Ref-Sheet.xlsx
+++ b/Aircraft-Design-Ref-Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4602fdf878c58603/Documents/GitHub/Aircraft-Design-USC-Fall24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{997DC446-395C-45DF-8FB0-9A6B12FE88E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E2AD07D-7410-473D-ADB7-1C707C3E300F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
+    <workbookView minimized="1" xWindow="7104" yWindow="3972" windowWidth="12264" windowHeight="8616" activeTab="1" xr2:uid="{B9DCB17C-302B-4D14-92AB-4707EE77551C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="188">
   <si>
     <t>Req type</t>
   </si>
@@ -588,6 +588,21 @@
   </si>
   <si>
     <t>92.6 km</t>
+  </si>
+  <si>
+    <t>Design Specs:</t>
+  </si>
+  <si>
+    <t>10m/s</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>15m/s</t>
+  </si>
+  <si>
+    <t>200m</t>
   </si>
 </sst>
 </file>
@@ -1129,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25428C8A-662B-400E-8D06-D9245C758624}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1762,6 +1777,32 @@
       </c>
       <c r="O23" s="1" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" t="s">
+        <v>184</v>
+      </c>
+      <c r="G40" t="s">
+        <v>129</v>
+      </c>
+      <c r="H40" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
